--- a/R6S-Weapon-Statistics.xlsx
+++ b/R6S-Weapon-Statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Desktop\R6S-Weapon-Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70B5219-C4E3-4D3A-B165-9D0ED0124E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AF7727-9652-402B-9AF1-F8C4D9B6A567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1872" yWindow="528" windowWidth="18996" windowHeight="6660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Damage per bullet" sheetId="1" r:id="rId1"/>
@@ -539,7 +539,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,6 +550,14 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -736,7 +744,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="26">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
@@ -797,8 +805,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -863,8 +872,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="26"/>
   </cellXfs>
-  <cellStyles count="26">
+  <cellStyles count="27">
     <cellStyle name="AB" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="AR AB" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="AR ABF" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -875,6 +885,7 @@
     <cellStyle name="Else AB" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="Else ABF" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Else BF" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8"/>
     <cellStyle name="LMG AB" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="LMG ABF" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="LMG BF" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1193,7 +1204,7 @@
   <dimension ref="A1:AX113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AP1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1257,7 +1268,7 @@
       <c r="AP1" s="27"/>
     </row>
     <row r="2" spans="1:50">
-      <c r="A2" s="27" t="str">
+      <c r="A2" s="28" t="str">
         <f>HYPERLINK("https://github.com/hanslhansl/R6S-Weapon-Statistics/#damage-per-bullet", "A detailed explanation can be found here")</f>
         <v>A detailed explanation can be found here</v>
       </c>
@@ -16543,7 +16554,7 @@
   <dimension ref="A1:AX113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AP1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16607,7 +16618,7 @@
       <c r="AP1" s="27"/>
     </row>
     <row r="2" spans="1:50">
-      <c r="A2" s="27" t="str">
+      <c r="A2" s="28" t="str">
         <f>HYPERLINK("https://github.com/hanslhansl/R6S-Weapon-Statistics/#damage-per-shot", "A detailed explanation can be found here")</f>
         <v>A detailed explanation can be found here</v>
       </c>
@@ -32953,7 +32964,7 @@
   <dimension ref="A1:AX113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AP1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -33018,7 +33029,7 @@
       <c r="AP1" s="27"/>
     </row>
     <row r="2" spans="1:50">
-      <c r="A2" s="27" t="str">
+      <c r="A2" s="28" t="str">
         <f>HYPERLINK("https://github.com/hanslhansl/R6S-Weapon-Statistics/#damage-per-second---dps", "A detailed explanation can be found here")</f>
         <v>A detailed explanation can be found here</v>
       </c>
